--- a/Documentation/17. Analise_dos_Eventos_para_cada_Cenario.xlsx
+++ b/Documentation/17. Analise_dos_Eventos_para_cada_Cenario.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/618f498efd103716/Documentos/Impacta/Engenharia de Requisitos/Silpan/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eed59d4ebf12600b/Documentos/Projeto/Faculdade/Silpan/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="11_FC2EFCB47CB5B86B36170F9B1C85E03E7C818D3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C4FE20F-2A37-4B5E-B820-AE24E32DC9B0}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="11_FC2EFCB47CB5B86B36170F9B1C85E03E7C818D3C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C4FE20F-2A37-4B5E-B820-AE24E32DC9B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-8580" windowWidth="16440" windowHeight="38190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DFD Orçamento sob medida" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -382,7 +382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1184,20 +1184,57 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,7 +1242,61 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1214,102 +1305,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1627,11 +1627,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="52.28515625" customWidth="1"/>
@@ -1640,69 +1640,69 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="58" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="68"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="68"/>
-    </row>
-    <row r="3" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A3" s="78" t="s">
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="92"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="92"/>
+    </row>
+    <row r="3" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="80" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="58" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.899999999999999" customHeight="1">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="72" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4">
@@ -1720,9 +1720,9 @@
       <c r="I4" s="1"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="16.899999999999999" customHeight="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="54"/>
+    <row r="5" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="5">
         <f>C4+1</f>
         <v>2</v>
@@ -1739,11 +1739,11 @@
       <c r="I5" s="1"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="16.899999999999999" customHeight="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54"/>
+    <row r="6" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="75"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="5">
-        <f t="shared" ref="C6:C48" si="0">C5+1</f>
+        <f t="shared" ref="C6:C31" si="0">C5+1</f>
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1758,9 +1758,9 @@
       <c r="I6" s="1"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:13" ht="16.899999999999999" customHeight="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="54"/>
+    <row r="7" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="75"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1777,9 +1777,9 @@
       <c r="I7" s="1"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:13" ht="16.899999999999999" customHeight="1">
-      <c r="A8" s="52"/>
-      <c r="B8" s="54"/>
+    <row r="8" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="75"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1795,11 +1795,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="18"/>
-      <c r="M8" s="67"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.899999999999999" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="54"/>
+      <c r="M8" s="53"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1816,14 +1816,14 @@
       <c r="I9" s="1"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="84" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="54">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1837,12 +1837,12 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="85"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="86"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="73">
+      <c r="J10" s="59"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="78"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="54">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1858,10 +1858,10 @@
       <c r="I11" s="1"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="86"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="73">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="78"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="54">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1877,10 +1877,10 @@
       <c r="I12" s="1"/>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="86"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="78"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="54">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1896,9 +1896,9 @@
       <c r="I13" s="1"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="86"/>
-      <c r="B14" s="69" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="78"/>
+      <c r="B14" s="82" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="5">
@@ -1915,11 +1915,11 @@
       <c r="I14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="85"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="86"/>
-      <c r="B15" s="63"/>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="78"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1936,11 +1936,11 @@
       <c r="I15" s="12"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" s="50" t="s">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="72" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4">
@@ -1959,9 +1959,9 @@
       <c r="I16" s="16"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="52"/>
-      <c r="B17" s="54"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="75"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="5">
         <f>C16+1</f>
         <v>14</v>
@@ -1978,9 +1978,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="52"/>
-      <c r="B18" s="54"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="75"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1997,9 +1997,9 @@
       <c r="I18" s="1"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="52"/>
-      <c r="B19" s="55" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="75"/>
+      <c r="B19" s="68" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="5">
@@ -2018,9 +2018,9 @@
       <c r="I19" s="1"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="52"/>
-      <c r="B20" s="56"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="75"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2037,11 +2037,11 @@
       <c r="I20" s="12"/>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="90" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="72" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="5">
@@ -2060,9 +2060,9 @@
       <c r="I21" s="16"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="91"/>
-      <c r="B22" s="54"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="86"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2079,9 +2079,9 @@
       <c r="I22" s="1"/>
       <c r="J22" s="18"/>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="91"/>
-      <c r="B23" s="54"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="86"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2098,11 +2098,11 @@
       <c r="I23" s="1"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="50" t="s">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="5">
@@ -2121,9 +2121,9 @@
       <c r="I24" s="21"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="52"/>
-      <c r="B25" s="92"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="75"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2140,11 +2140,11 @@
       <c r="I25" s="22"/>
       <c r="J25" s="26"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="50" t="s">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="5">
@@ -2163,9 +2163,9 @@
       <c r="I26" s="21"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="51"/>
-      <c r="B27" s="92"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="76"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2182,11 +2182,11 @@
       <c r="I27" s="22"/>
       <c r="J27" s="26"/>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="50" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="5">
@@ -2205,9 +2205,9 @@
       <c r="I28" s="21"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="92"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="75"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2224,11 +2224,11 @@
       <c r="I29" s="22"/>
       <c r="J29" s="26"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A30" s="50" t="s">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="5">
@@ -2247,9 +2247,9 @@
       <c r="I30" s="21"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="56"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="75"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2267,11 +2267,11 @@
       <c r="J31" s="20"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="52"/>
-      <c r="B32" s="56"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="75"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="5">
-        <f>C31+1</f>
+        <f t="shared" ref="C32:C48" si="1">C31+1</f>
         <v>29</v>
       </c>
       <c r="D32" s="28" t="s">
@@ -2283,14 +2283,14 @@
         <v>67</v>
       </c>
       <c r="H32" s="23"/>
-      <c r="I32" s="65"/>
+      <c r="I32" s="51"/>
       <c r="J32" s="26"/>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="51"/>
-      <c r="B33" s="92"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="76"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="5">
-        <f>C32+1</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="D33" s="28" t="s">
@@ -2301,19 +2301,19 @@
       <c r="G33" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="64"/>
+      <c r="H33" s="50"/>
       <c r="I33" s="49"/>
       <c r="J33" s="26"/>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="50" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="5">
-        <f>C33+1</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="D34" s="27" t="s">
@@ -2325,14 +2325,14 @@
       <c r="F34" s="24"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="64"/>
+      <c r="I34" s="50"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="56"/>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="75"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="5">
-        <f>C34+1</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="D35" s="28" t="s">
@@ -2347,11 +2347,11 @@
       <c r="I35" s="21"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="51"/>
-      <c r="B36" s="92"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="76"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="5">
-        <f>C35+1</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="D36" s="28" t="s">
@@ -2366,15 +2366,15 @@
       <c r="I36" s="21"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="50" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="5">
-        <f>C36+1</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="D37" s="28" t="s">
@@ -2389,11 +2389,11 @@
       <c r="I37" s="22"/>
       <c r="J37" s="26"/>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="52"/>
-      <c r="B38" s="56"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="75"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="5">
-        <f>C37+1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D38" s="28" t="s">
@@ -2408,11 +2408,11 @@
       <c r="I38" s="21"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="52"/>
-      <c r="B39" s="56"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="75"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="5">
-        <f>C38+1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D39" s="28" t="s">
@@ -2427,11 +2427,11 @@
       <c r="I39" s="22"/>
       <c r="J39" s="26"/>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="51"/>
-      <c r="B40" s="92"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="76"/>
+      <c r="B40" s="84"/>
       <c r="C40" s="5">
-        <f>C39+1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="D40" s="28" t="s">
@@ -2446,15 +2446,15 @@
       <c r="I40" s="23"/>
       <c r="J40" s="26"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A41" s="50" t="s">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="5">
-        <f>C40+1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="D41" s="27" t="s">
@@ -2469,11 +2469,11 @@
       <c r="I41" s="21"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A42" s="51"/>
-      <c r="B42" s="92"/>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="76"/>
+      <c r="B42" s="84"/>
       <c r="C42" s="5">
-        <f>C41+1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="D42" s="28" t="s">
@@ -2488,15 +2488,15 @@
       <c r="I42" s="21"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="50" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="5">
-        <f>C42+1</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="D43" s="31" t="s">
@@ -2511,11 +2511,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="52"/>
-      <c r="B44" s="56"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="75"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="5">
-        <f>C43+1</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="D44" s="31" t="s">
@@ -2530,11 +2530,11 @@
       <c r="I44" s="21"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A45" s="52"/>
-      <c r="B45" s="56"/>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="75"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="5">
-        <f>C44+1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="D45" s="31" t="s">
@@ -2549,14 +2549,14 @@
       <c r="I45" s="21"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="52"/>
-      <c r="B46" s="56"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="75"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="5">
-        <f>C45+1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="D46" s="87" t="s">
+      <c r="D46" s="60" t="s">
         <v>94</v>
       </c>
       <c r="E46" s="43"/>
@@ -2568,15 +2568,15 @@
       <c r="I46" s="46"/>
       <c r="J46" s="47"/>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="57" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="5">
-        <f>C46+1</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="D47" s="48" t="s">
@@ -2591,11 +2591,11 @@
       <c r="I47" s="49"/>
       <c r="J47" s="47"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="88"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="89">
-        <f>C47+1</f>
+      <c r="B48" s="84"/>
+      <c r="C48" s="61">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="D48" s="48" t="s">
@@ -2607,14 +2607,32 @@
         <v>100</v>
       </c>
       <c r="H48" s="49"/>
-      <c r="I48" s="66"/>
+      <c r="I48" s="52"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="B43:B46"/>
@@ -2630,24 +2648,6 @@
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/17. Analise_dos_Eventos_para_cada_Cenario.xlsx
+++ b/Documentation/17. Analise_dos_Eventos_para_cada_Cenario.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eed59d4ebf12600b/Documentos/Projeto/Faculdade/Silpan/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\re041584\OneDrive\Documentos\Impacta\Engenharia de Requisitos\Silpan\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="11_FC2EFCB47CB5B86B36170F9B1C85E03E7C818D3C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C4FE20F-2A37-4B5E-B820-AE24E32DC9B0}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-8580" windowWidth="16440" windowHeight="38190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-7980" windowWidth="16440" windowHeight="38196"/>
   </bookViews>
   <sheets>
     <sheet name="DFD Orçamento sob medida" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -381,8 +380,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +455,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1142,9 +1148,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1218,15 +1221,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,33 +1281,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1284,32 +1308,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1624,85 +1630,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="52.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="89" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="62" t="s">
+      <c r="F1" s="73"/>
+      <c r="G1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="92"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="92"/>
-    </row>
-    <row r="3" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="61"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="61"/>
+    </row>
+    <row r="3" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+    <row r="4" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4">
@@ -1720,9 +1726,9 @@
       <c r="I4" s="1"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="73"/>
+    <row r="5" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="66"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="5">
         <f>C4+1</f>
         <v>2</v>
@@ -1739,9 +1745,9 @@
       <c r="I5" s="1"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="73"/>
+    <row r="6" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="66"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="5">
         <f t="shared" ref="C6:C31" si="0">C5+1</f>
         <v>3</v>
@@ -1758,9 +1764,9 @@
       <c r="I6" s="1"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="73"/>
+    <row r="7" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="66"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1777,9 +1783,9 @@
       <c r="I7" s="1"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="73"/>
+    <row r="8" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="66"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1795,11 +1801,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="18"/>
-      <c r="M8" s="53"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
-      <c r="B9" s="73"/>
+      <c r="M8" s="52"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="63"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1816,14 +1822,14 @@
       <c r="I9" s="1"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="53">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1837,12 +1843,12 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="59"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="54">
+      <c r="J10" s="58"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="84"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="53">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1858,10 +1864,10 @@
       <c r="I11" s="1"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="54">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="84"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="53">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1877,10 +1883,10 @@
       <c r="I12" s="1"/>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="54">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="84"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="53">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1896,9 +1902,9 @@
       <c r="I13" s="1"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="82" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="84"/>
+      <c r="B14" s="88" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="5">
@@ -1915,11 +1921,11 @@
       <c r="I14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="59"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="83"/>
+      <c r="J14" s="58"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="84"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1936,11 +1942,11 @@
       <c r="I15" s="12"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4">
@@ -1959,9 +1965,9 @@
       <c r="I16" s="16"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="73"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="66"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="5">
         <f>C16+1</f>
         <v>14</v>
@@ -1978,9 +1984,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="75"/>
-      <c r="B18" s="73"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="66"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1997,9 +2003,9 @@
       <c r="I18" s="1"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
-      <c r="B19" s="68" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="66"/>
+      <c r="B19" s="64" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="5">
@@ -2018,14 +2024,14 @@
       <c r="I19" s="1"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
-      <c r="B20" s="69"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="92" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="10"/>
@@ -2037,41 +2043,41 @@
       <c r="I20" s="12"/>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="85" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="37"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="73"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="91"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="38"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,18 +2085,18 @@
       <c r="I22" s="1"/>
       <c r="J22" s="18"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="73"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="91"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="38"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="1" t="s">
         <v>42</v>
       </c>
@@ -2098,11 +2104,11 @@
       <c r="I23" s="1"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74" t="s">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="5">
@@ -2121,9 +2127,9 @@
       <c r="I24" s="21"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
-      <c r="B25" s="84"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="66"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2140,11 +2146,11 @@
       <c r="I25" s="22"/>
       <c r="J25" s="26"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="74" t="s">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="5">
@@ -2163,9 +2169,9 @@
       <c r="I26" s="21"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
-      <c r="B27" s="84"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2182,11 +2188,11 @@
       <c r="I27" s="22"/>
       <c r="J27" s="26"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="74" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="5">
@@ -2205,9 +2211,9 @@
       <c r="I28" s="21"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="75"/>
-      <c r="B29" s="84"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="66"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2224,11 +2230,11 @@
       <c r="I29" s="22"/>
       <c r="J29" s="26"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="74" t="s">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="5">
@@ -2247,9 +2253,9 @@
       <c r="I30" s="21"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="75"/>
-      <c r="B31" s="69"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2267,9 +2273,9 @@
       <c r="J31" s="20"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="75"/>
-      <c r="B32" s="69"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="66"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="5">
         <f t="shared" ref="C32:C48" si="1">C31+1</f>
         <v>29</v>
@@ -2283,12 +2289,12 @@
         <v>67</v>
       </c>
       <c r="H32" s="23"/>
-      <c r="I32" s="51"/>
+      <c r="I32" s="50"/>
       <c r="J32" s="26"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
-      <c r="B33" s="84"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="63"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="5">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -2301,15 +2307,15 @@
       <c r="G33" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="50"/>
-      <c r="I33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="48"/>
       <c r="J33" s="26"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="74" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="5">
@@ -2325,12 +2331,12 @@
       <c r="F34" s="24"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="50"/>
+      <c r="I34" s="49"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
-      <c r="B35" s="69"/>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="66"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="5">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -2347,9 +2353,9 @@
       <c r="I35" s="21"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
-      <c r="B36" s="84"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="63"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="5">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -2366,11 +2372,11 @@
       <c r="I36" s="21"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="74" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="5">
@@ -2389,9 +2395,9 @@
       <c r="I37" s="22"/>
       <c r="J37" s="26"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="75"/>
-      <c r="B38" s="69"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="66"/>
+      <c r="B38" s="67"/>
       <c r="C38" s="5">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -2408,9 +2414,9 @@
       <c r="I38" s="21"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="75"/>
-      <c r="B39" s="69"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="66"/>
+      <c r="B39" s="67"/>
       <c r="C39" s="5">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -2427,9 +2433,9 @@
       <c r="I39" s="22"/>
       <c r="J39" s="26"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="76"/>
-      <c r="B40" s="84"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="63"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -2446,11 +2452,11 @@
       <c r="I40" s="23"/>
       <c r="J40" s="26"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="74" t="s">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="5">
@@ -2469,9 +2475,9 @@
       <c r="I41" s="21"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="76"/>
-      <c r="B42" s="84"/>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="63"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="5">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2488,11 +2494,11 @@
       <c r="I42" s="21"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="74" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="5">
@@ -2511,9 +2517,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="75"/>
-      <c r="B44" s="69"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="66"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="5">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2530,9 +2536,9 @@
       <c r="I44" s="21"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="75"/>
-      <c r="B45" s="69"/>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="66"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="5">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2549,72 +2555,89 @@
       <c r="I45" s="21"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="75"/>
-      <c r="B46" s="69"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="66"/>
+      <c r="B46" s="67"/>
       <c r="C46" s="5">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="D46" s="60" t="s">
+      <c r="D46" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45" t="s">
+      <c r="E46" s="42"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="H46" s="45"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="47"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="87" t="s">
+      <c r="H46" s="44"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="46"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="5">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="47" t="s">
         <v>97</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>98</v>
       </c>
       <c r="F47" s="29"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="47"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="88"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="61">
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="46"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="71"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="60">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="47" t="s">
         <v>99</v>
       </c>
       <c r="E48" s="29"/>
       <c r="F48" s="29"/>
-      <c r="G48" s="49" t="s">
+      <c r="G48" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="H48" s="49"/>
-      <c r="I48" s="52"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="51"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
@@ -2627,27 +2650,10 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
     <mergeCell ref="G1:I2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/17. Analise_dos_Eventos_para_cada_Cenario.xlsx
+++ b/Documentation/17. Analise_dos_Eventos_para_cada_Cenario.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\re041584\OneDrive\Documentos\Impacta\Engenharia de Requisitos\Silpan\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eed59d4ebf12600b/Documentos/Projeto/Faculdade/Silpan/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="225" documentId="11_E28DDB9A3CBEB8FB300AE70E1744D8EEE5046ABD" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{83F06CAD-5758-4180-A4C3-8909EC77A68A}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-7980" windowWidth="16440" windowHeight="38196"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DFD Orçamento sob medida" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
   <si>
     <t>Externo</t>
   </si>
@@ -113,15 +114,9 @@
     <t>FB</t>
   </si>
   <si>
-    <t>Cliente solicita orçamento sob medida</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Vendedor analisa orçamento</t>
-  </si>
-  <si>
     <t>x(1)</t>
   </si>
   <si>
@@ -161,9 +156,6 @@
     <t>x(7)</t>
   </si>
   <si>
-    <t>Vendedor analisa solicitação</t>
-  </si>
-  <si>
     <t>x(8)</t>
   </si>
   <si>
@@ -185,111 +177,42 @@
     <t>Tratar pedido</t>
   </si>
   <si>
-    <t xml:space="preserve">Cliente solicita pedido com orçamento </t>
-  </si>
-  <si>
-    <t>x(8, 10)</t>
-  </si>
-  <si>
-    <t>Vendedor efetiva pedido com orçamento</t>
-  </si>
-  <si>
-    <t>x(13)</t>
-  </si>
-  <si>
-    <t>Vendedor solicita separação do pedido</t>
-  </si>
-  <si>
-    <t>x(22, 24,26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendedor recebe pedido do cliente  </t>
-  </si>
-  <si>
-    <t>x(16)</t>
-  </si>
-  <si>
     <t>Tratar pedido sob medida</t>
   </si>
   <si>
-    <t>Cliente solicita pedido com orçamento sob medida</t>
-  </si>
-  <si>
-    <t>x(1, 6)</t>
-  </si>
-  <si>
-    <t>x(18)</t>
-  </si>
-  <si>
-    <t>Vendedor solicita separação do pedido sob medida</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tratar pagamento com cartão </t>
   </si>
   <si>
-    <t>Cliente informa número do pedido</t>
-  </si>
-  <si>
-    <t>x(14, 17, 19)</t>
-  </si>
-  <si>
     <t>Cliente realiza pagamento com cartão</t>
   </si>
   <si>
-    <t>x(21)</t>
-  </si>
-  <si>
     <t>Tratar pagamento com dinheiro</t>
   </si>
   <si>
     <t>Cliente realiza pagamento com dinheiro</t>
   </si>
   <si>
-    <t>x(23)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tratar pagamento com pix </t>
   </si>
   <si>
     <t>Cliente realiza pagamento com Pix</t>
   </si>
   <si>
-    <t>x(25)</t>
-  </si>
-  <si>
     <t>Tratar empacotamento</t>
   </si>
   <si>
-    <t>Almoxarife verifica estoque</t>
-  </si>
-  <si>
-    <t>x(15, 20)</t>
-  </si>
-  <si>
     <t>Almoxarife prepara pedido</t>
   </si>
   <si>
-    <t>x(27)</t>
-  </si>
-  <si>
     <t>Almoxarife despacha pedido</t>
   </si>
   <si>
-    <t>x(28)</t>
-  </si>
-  <si>
     <t>Almoxarife entrega pedido</t>
   </si>
   <si>
-    <t>x(29)</t>
-  </si>
-  <si>
     <t>Tratar devolução do pedido</t>
   </si>
   <si>
-    <t>Cliente solicita devoluçao</t>
-  </si>
-  <si>
     <t>x(22, 24, 26)</t>
   </si>
   <si>
@@ -299,75 +222,45 @@
     <t>x(31)</t>
   </si>
   <si>
-    <t>Vendedor analisa produto</t>
-  </si>
-  <si>
     <t>x(32)</t>
   </si>
   <si>
     <t>Tratar troca do pedido</t>
   </si>
   <si>
-    <t>Cliente solicita troca</t>
-  </si>
-  <si>
     <t>x(34)</t>
   </si>
   <si>
-    <t>Vendedor analisa produto de troca</t>
-  </si>
-  <si>
     <t>x(35)</t>
   </si>
   <si>
-    <t>Vendedor realiza troca</t>
-  </si>
-  <si>
     <t>x(35, 36)</t>
   </si>
   <si>
     <t>Tratar estorno</t>
   </si>
   <si>
-    <t>Cliente entrega comprovante de pagamento</t>
-  </si>
-  <si>
-    <t>Caixa entrega comprovante de estorno</t>
-  </si>
-  <si>
     <t>x(38)</t>
   </si>
   <si>
     <t>Tratar compra de produtos</t>
   </si>
   <si>
-    <t>Consultor de Compras solicita orçamento</t>
-  </si>
-  <si>
     <t>Fabricante entrega orçamento</t>
   </si>
   <si>
     <t>x(40)</t>
   </si>
   <si>
-    <t>Consultor de compras analisa orçamento</t>
-  </si>
-  <si>
     <t>x(41)</t>
   </si>
   <si>
-    <t>Consultor de Compras realiza compra</t>
-  </si>
-  <si>
     <t>x(42)</t>
   </si>
   <si>
     <t>Tratar abastecemento de estoque</t>
   </si>
   <si>
-    <t>Fabricante entrega produtos</t>
-  </si>
-  <si>
     <t>x(43)</t>
   </si>
   <si>
@@ -375,13 +268,97 @@
   </si>
   <si>
     <t>x(44)</t>
+  </si>
+  <si>
+    <t>Cliente solicita pedido de orçamento sob medida</t>
+  </si>
+  <si>
+    <t>Vendedor analisa pedido de orçamento</t>
+  </si>
+  <si>
+    <t>Cliente aprova orçamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendedor efetiva pedido </t>
+  </si>
+  <si>
+    <t>Cliente aprova orçamento sob medida</t>
+  </si>
+  <si>
+    <t>Vendedor efetiva pedido sob medida</t>
+  </si>
+  <si>
+    <t>Cliente cancela pedido sob medida</t>
+  </si>
+  <si>
+    <t>Cliente solicita cancelamento do pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente informa pedido </t>
+  </si>
+  <si>
+    <t>Financeiro solicita preparo do pedido</t>
+  </si>
+  <si>
+    <t>Financeiro solicita preparo do pedido sob medida</t>
+  </si>
+  <si>
+    <t>Cliente informa pedido</t>
+  </si>
+  <si>
+    <t>Financeiro entrega solicitação</t>
+  </si>
+  <si>
+    <t>Cliente solicita retirada</t>
+  </si>
+  <si>
+    <t>Financeiro solicita produto sob medida</t>
+  </si>
+  <si>
+    <t>Almoxarife solicita fabricação de pedido sob medida</t>
+  </si>
+  <si>
+    <t>Fabricante entrega produto sob medida</t>
+  </si>
+  <si>
+    <t>Tratar empacotamento sob medida</t>
+  </si>
+  <si>
+    <t>Cliente entrega solicitação de devolução</t>
+  </si>
+  <si>
+    <t>Vendedor analisa produto devolvido</t>
+  </si>
+  <si>
+    <t>Cliente entrega solicitação de troca</t>
+  </si>
+  <si>
+    <t>Vendedor entrega produto</t>
+  </si>
+  <si>
+    <t>Vendedor entrega solicitação de estorno</t>
+  </si>
+  <si>
+    <t>Entregar comprovante de  estorno</t>
+  </si>
+  <si>
+    <t>Auxiliar de Compras envia pedido de orçamento ao fabricante</t>
+  </si>
+  <si>
+    <t>Auxiliar de Compras analisa orçamento do fabricante</t>
+  </si>
+  <si>
+    <t>Auxiliar de Compras realiza compra de produtos</t>
+  </si>
+  <si>
+    <t>Fabricante realiza entrega</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,13 +432,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -501,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -713,19 +683,6 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -865,19 +822,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -953,19 +897,6 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -1013,37 +944,81 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1051,95 +1026,129 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,81 +1157,50 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1242,80 +1220,98 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,1030 +1626,1208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="52.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="72" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="73"/>
+      <c r="F1" s="83"/>
       <c r="G1" s="76" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="77"/>
       <c r="I1" s="77"/>
-      <c r="J1" s="61"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="J1" s="73"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="73"/>
+    </row>
+    <row r="3" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+    <row r="4" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="5">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="67"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="4">
         <f>C4+1</f>
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
+      <c r="D5" s="44" t="s">
+        <v>66</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="5">
-        <f t="shared" ref="C6:C31" si="0">C5+1</f>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="67"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:C60" si="0">C5+1</f>
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
+      <c r="D6" s="44" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="5">
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="67"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
+      <c r="D7" s="44" t="s">
+        <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="5">
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="67"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
+      <c r="D8" s="44" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="18"/>
-      <c r="M8" s="52"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="5">
+      <c r="J8" s="13"/>
+      <c r="M8" s="40"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="64"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
+      <c r="D9" s="44" t="s">
+        <v>21</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="83" t="s">
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="42"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="69"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="53">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="E11" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="58"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="53">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="84"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="53">
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="69"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
+      <c r="D12" s="44" t="s">
+        <v>66</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="84"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="53">
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="69"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
+      <c r="D13" s="44" t="s">
+        <v>21</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
-      <c r="B14" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="69"/>
+      <c r="B14" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="69"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D15" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="58"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="13">
-        <f t="shared" si="0"/>
+      <c r="E15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>12</v>
-      </c>
       <c r="C16" s="4">
-        <f>C15+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="66"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="5">
-        <f>C16+1</f>
+      <c r="D16" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="67"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>39</v>
+      <c r="D17" s="46" t="s">
+        <v>68</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="5">
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="67"/>
+      <c r="B18" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>41</v>
+      <c r="D18" s="47" t="s">
+        <v>72</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
-      <c r="B19" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D19" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="5">
+      <c r="D19" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="81"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D20" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="19"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="68" t="s">
+      <c r="D20" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="81"/>
+      <c r="B21" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="91"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="D22" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="91"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="5">
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="D23" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62" t="s">
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="67"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="99"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="64"/>
+      <c r="B25" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="99"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="99"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="67"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D27" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="67"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="99"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="64"/>
+      <c r="B29" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="99"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="99"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="67"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="99"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="67"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="99"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="64"/>
+      <c r="B33" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="99"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="67"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="67"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="15"/>
+      <c r="L37" s="27"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="64"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="56"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="69"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="69"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="69"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="69"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="69"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="70"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D45" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="67"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="64"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="18"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B49" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="5">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D24" s="27" t="s">
+      <c r="C49" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="20"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="67"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="F50" s="20"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="67"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="24"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="66"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="5">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D25" s="28" t="s">
+      <c r="H51" s="18"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="64"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
+      <c r="B53" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="64"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="25"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="H54" s="18"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="15"/>
+    </row>
+    <row r="55" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="5">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="29" t="s">
+      <c r="C55" s="4">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="63"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D27" s="28" t="s">
+      <c r="D55" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="67"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="20"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="67"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="25"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="18"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="64"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="32"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" s="34"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="36"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="D59" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="24"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="36"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="64"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="4">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="66"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="5">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="22" t="s">
+      <c r="D60" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D31" s="28" t="s">
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="20"/>
-      <c r="L31" s="32"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="66"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="5">
-        <f t="shared" ref="C32:C48" si="1">C31+1</f>
-        <v>29</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="63"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="5">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="5">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="66"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="5">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="63"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="5">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="5">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="26"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="66"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="66"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="5">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="63"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="5">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="5">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="63"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="5">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="5">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="5">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="25"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="5">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="66"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="5">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="D46" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="46"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="5">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="D47" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="46"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="71"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="60">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="H48" s="48"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="32"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A43:A46"/>
+  <mergeCells count="34">
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="E1:F2"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A29"/>
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B43:B46"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/17. Analise_dos_Eventos_para_cada_Cenario.xlsx
+++ b/Documentation/17. Analise_dos_Eventos_para_cada_Cenario.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eed59d4ebf12600b/Documentos/Projeto/Faculdade/Silpan/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\re041584\OneDrive\Documentos\Impacta\Engenharia de Requisitos\Silpan\Silpan\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="11_E28DDB9A3CBEB8FB300AE70E1744D8EEE5046ABD" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{83F06CAD-5758-4180-A4C3-8909EC77A68A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="936" windowWidth="29040" windowHeight="15996"/>
   </bookViews>
   <sheets>
     <sheet name="DFD Orçamento sob medida" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
   <si>
     <t>Externo</t>
   </si>
@@ -353,11 +352,23 @@
   <si>
     <t>Fabricante realiza entrega</t>
   </si>
+  <si>
+    <t>x(13)</t>
+  </si>
+  <si>
+    <t>x(14)</t>
+  </si>
+  <si>
+    <t>x(10)</t>
+  </si>
+  <si>
+    <t>x(19)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -797,28 +808,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -943,19 +932,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1012,13 +988,69 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1099,13 +1131,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,77 +1158,107 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1211,28 +1267,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1247,7 +1294,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1259,58 +1306,46 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1626,91 +1661,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="52.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="82" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="76" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="73"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="73"/>
-    </row>
-    <row r="3" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="98"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="78"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="99"/>
+    </row>
+    <row r="3" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="94" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:13" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="79" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="55" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="10"/>
@@ -1722,14 +1758,14 @@
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="75"/>
+    <row r="5" spans="1:13" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="71"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>2</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E5" s="2"/>
@@ -1741,14 +1777,14 @@
       <c r="I5" s="1"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="75"/>
+    <row r="6" spans="1:13" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="71"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="4">
         <f t="shared" ref="C6:C60" si="0">C5+1</f>
         <v>3</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1760,14 +1796,14 @@
       <c r="I6" s="1"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="75"/>
+    <row r="7" spans="1:13" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="71"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="41" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2"/>
@@ -1779,14 +1815,14 @@
       <c r="I7" s="1"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="75"/>
+    <row r="8" spans="1:13" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="71"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1797,16 +1833,16 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="13"/>
-      <c r="M8" s="40"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
-      <c r="B9" s="75"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="72"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="2"/>
@@ -1818,18 +1854,18 @@
       <c r="I9" s="1"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="65" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="56" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="5"/>
@@ -1839,16 +1875,16 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="42"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
-      <c r="B11" s="91"/>
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="92"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="41" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1860,14 +1896,14 @@
       <c r="I11" s="1"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="91"/>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="92"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="2"/>
@@ -1879,14 +1915,14 @@
       <c r="I12" s="1"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
-      <c r="B13" s="92"/>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="92"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="2"/>
@@ -1898,35 +1934,34 @@
       <c r="I13" s="1"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
-      <c r="B14" s="93" t="s">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="92"/>
+      <c r="B14" s="68" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="56" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="42"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="94"/>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="92"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="57" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -1938,354 +1973,370 @@
       <c r="I15" s="9"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="79" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="75"/>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="71"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="43" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="67"/>
-      <c r="B18" s="43" t="s">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="71"/>
+      <c r="B18" s="59" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="44" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="80" t="s">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="76" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="8"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="81"/>
-      <c r="B20" s="72"/>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="86"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="1"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
-      <c r="B21" s="96" t="s">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="86"/>
+      <c r="B21" s="61" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="29"/>
+      <c r="E22" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="28"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="71"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="29"/>
+      <c r="E23" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="28"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="66"/>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="71"/>
+      <c r="B24" s="75"/>
       <c r="C24" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="29"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
-      <c r="B25" s="97" t="s">
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="72"/>
+      <c r="B25" s="62" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="99"/>
-      <c r="F25" s="29"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="99"/>
-      <c r="F26" s="29"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="71"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D27" s="95" t="s">
+      <c r="D27" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="13"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="67"/>
-      <c r="B28" s="66"/>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="71"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="99"/>
-      <c r="F28" s="29"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="13"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
-      <c r="B29" s="98" t="s">
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="72"/>
+      <c r="B29" s="63" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="29"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="99"/>
-      <c r="F30" s="29"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="13"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="67"/>
-      <c r="B31" s="68"/>
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="71"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="D31" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="99"/>
-      <c r="F31" s="29"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="13"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="67"/>
-      <c r="B32" s="66"/>
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="71"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="D32" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="99"/>
-      <c r="F32" s="29"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="13"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
-      <c r="B33" s="97" t="s">
+    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="72"/>
+      <c r="B33" s="62" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D33" s="53" t="s">
+      <c r="D33" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="99"/>
-      <c r="F33" s="29"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="13"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="67" t="s">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="74" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="48" t="s">
         <v>77</v>
       </c>
       <c r="E34" s="19"/>
@@ -2295,14 +2346,14 @@
       <c r="I34" s="16"/>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="67"/>
-      <c r="B35" s="68"/>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="71"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="D35" s="49" t="s">
         <v>78</v>
       </c>
       <c r="E35" s="20"/>
@@ -2312,14 +2363,14 @@
       <c r="I35" s="16"/>
       <c r="J35" s="15"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="67"/>
-      <c r="B36" s="68"/>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="71"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="49" t="s">
         <v>42</v>
       </c>
       <c r="E36" s="20"/>
@@ -2329,14 +2380,14 @@
       <c r="I36" s="16"/>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="67"/>
-      <c r="B37" s="68"/>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="71"/>
+      <c r="B37" s="74"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D37" s="53" t="s">
+      <c r="D37" s="49" t="s">
         <v>43</v>
       </c>
       <c r="E37" s="20"/>
@@ -2347,151 +2398,151 @@
       <c r="J37" s="15"/>
       <c r="L37" s="27"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="64"/>
-      <c r="B38" s="66"/>
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="72"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="56"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="69" t="s">
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="52"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D39" s="53" t="s">
+      <c r="D39" s="49" t="s">
         <v>79</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="58"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="69"/>
-      <c r="B40" s="68"/>
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="92"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D40" s="53" t="s">
+      <c r="D40" s="49" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="24"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="57"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="53"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="69"/>
-      <c r="B41" s="68"/>
+    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="92"/>
+      <c r="B41" s="74"/>
       <c r="C41" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D41" s="53" t="s">
+      <c r="D41" s="49" t="s">
         <v>81</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="25"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="57"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="53"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
-      <c r="B42" s="68"/>
+    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="92"/>
+      <c r="B42" s="74"/>
       <c r="C42" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D42" s="49" t="s">
         <v>78</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="57"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="53"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="69"/>
-      <c r="B43" s="68"/>
+    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="92"/>
+      <c r="B43" s="74"/>
       <c r="C43" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="48" t="s">
         <v>42</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="57"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="53"/>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="69"/>
-      <c r="B44" s="68"/>
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="92"/>
+      <c r="B44" s="74"/>
       <c r="C44" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D44" s="52" t="s">
+      <c r="D44" s="48" t="s">
         <v>43</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="57"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="53"/>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="70"/>
-      <c r="B45" s="66"/>
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="93"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D45" s="53" t="s">
+      <c r="D45" s="49" t="s">
         <v>44</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="57"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="53"/>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="63" t="s">
+    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="4">
@@ -2510,9 +2561,9 @@
       <c r="I46" s="16"/>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="67"/>
-      <c r="B47" s="68"/>
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="71"/>
+      <c r="B47" s="74"/>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2529,9 +2580,9 @@
       <c r="I47" s="16"/>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="64"/>
-      <c r="B48" s="66"/>
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="72"/>
+      <c r="B48" s="75"/>
       <c r="C48" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2548,11 +2599,11 @@
       <c r="I48" s="16"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="63" t="s">
+    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="4">
@@ -2571,9 +2622,9 @@
       <c r="I49" s="17"/>
       <c r="J49" s="21"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="67"/>
-      <c r="B50" s="68"/>
+    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="71"/>
+      <c r="B50" s="74"/>
       <c r="C50" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2590,9 +2641,9 @@
       <c r="I50" s="16"/>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="67"/>
-      <c r="B51" s="68"/>
+    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="71"/>
+      <c r="B51" s="74"/>
       <c r="C51" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2609,9 +2660,9 @@
       <c r="I51" s="17"/>
       <c r="J51" s="21"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="64"/>
-      <c r="B52" s="66"/>
+    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="72"/>
+      <c r="B52" s="75"/>
       <c r="C52" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2628,11 +2679,11 @@
       <c r="I52" s="18"/>
       <c r="J52" s="21"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="63" t="s">
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="4">
@@ -2651,9 +2702,9 @@
       <c r="I53" s="16"/>
       <c r="J53" s="15"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="64"/>
-      <c r="B54" s="66"/>
+    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="72"/>
+      <c r="B54" s="75"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2670,11 +2721,11 @@
       <c r="I54" s="16"/>
       <c r="J54" s="15"/>
     </row>
-    <row r="55" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="63" t="s">
+    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="4">
@@ -2693,9 +2744,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67"/>
-      <c r="B56" s="68"/>
+    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="71"/>
+      <c r="B56" s="74"/>
       <c r="C56" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2712,9 +2763,9 @@
       <c r="I56" s="16"/>
       <c r="J56" s="15"/>
     </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="67"/>
-      <c r="B57" s="68"/>
+    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="71"/>
+      <c r="B57" s="74"/>
       <c r="C57" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2731,9 +2782,9 @@
       <c r="I57" s="16"/>
       <c r="J57" s="15"/>
     </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="64"/>
-      <c r="B58" s="66"/>
+    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="72"/>
+      <c r="B58" s="75"/>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2741,85 +2792,59 @@
       <c r="D58" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="32"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="34" t="s">
+      <c r="E58" s="30"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="H58" s="34"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="36"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="63" t="s">
+      <c r="H58" s="32"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="34"/>
+    </row>
+    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D59" s="37" t="s">
+      <c r="D59" s="35" t="s">
         <v>92</v>
       </c>
       <c r="E59" s="24" t="s">
         <v>62</v>
       </c>
       <c r="F59" s="24"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="36"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="64"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="4">
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="34"/>
+    </row>
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="72"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="100">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
-      <c r="G60" s="38" t="s">
+      <c r="G60" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="H60" s="38"/>
-      <c r="I60" s="39"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="37"/>
       <c r="J60" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A34:A38"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="A49:A52"/>
@@ -2828,6 +2853,32 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="A55:A58"/>
     <mergeCell ref="B55:B58"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/17. Analise_dos_Eventos_para_cada_Cenario.xlsx
+++ b/Documentation/17. Analise_dos_Eventos_para_cada_Cenario.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\re041584\OneDrive\Documentos\Impacta\Engenharia de Requisitos\Silpan\Silpan\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eed59d4ebf12600b/Documentos/Projeto/Faculdade/Silpan/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_31F8F844F1AABDEC1094629CAFEF609F6E67C71E" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AA2502AC-3BF4-465C-8D31-FF9A9ECBBA7B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="936" windowWidth="29040" windowHeight="15996"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DFD Orçamento sob medida" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="113">
   <si>
     <t>Externo</t>
   </si>
@@ -212,9 +213,6 @@
     <t>Tratar devolução do pedido</t>
   </si>
   <si>
-    <t>x(22, 24, 26)</t>
-  </si>
-  <si>
     <t>Cliente entrega produto</t>
   </si>
   <si>
@@ -230,12 +228,6 @@
     <t>x(34)</t>
   </si>
   <si>
-    <t>x(35)</t>
-  </si>
-  <si>
-    <t>x(35, 36)</t>
-  </si>
-  <si>
     <t>Tratar estorno</t>
   </si>
   <si>
@@ -356,19 +348,76 @@
     <t>x(13)</t>
   </si>
   <si>
-    <t>x(14)</t>
-  </si>
-  <si>
     <t>x(10)</t>
   </si>
   <si>
     <t>x(19)</t>
+  </si>
+  <si>
+    <t>x(14, 17)</t>
+  </si>
+  <si>
+    <t>x(20)</t>
+  </si>
+  <si>
+    <t>x(24)</t>
+  </si>
+  <si>
+    <t>x(23)</t>
+  </si>
+  <si>
+    <t>x(27)</t>
+  </si>
+  <si>
+    <t>x(28)</t>
+  </si>
+  <si>
+    <t>x(25, 26, 29,30)</t>
+  </si>
+  <si>
+    <t>x(33)</t>
+  </si>
+  <si>
+    <t>x(36)</t>
+  </si>
+  <si>
+    <t>x(37)</t>
+  </si>
+  <si>
+    <t>x(47)</t>
+  </si>
+  <si>
+    <t>x(46)</t>
+  </si>
+  <si>
+    <t>x(48)</t>
+  </si>
+  <si>
+    <t>x(49)</t>
+  </si>
+  <si>
+    <t>x(50)</t>
+  </si>
+  <si>
+    <t>x(52)</t>
+  </si>
+  <si>
+    <t>x(53)</t>
+  </si>
+  <si>
+    <t>x(54)</t>
+  </si>
+  <si>
+    <t>x(56)</t>
+  </si>
+  <si>
+    <t>x(57)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1240,25 +1289,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,48 +1304,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1321,31 +1376,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1661,56 +1710,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="52.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="95"/>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="81" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="81" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="98"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="99"/>
-    </row>
-    <row r="3" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="89" t="s">
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="75"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="76"/>
+    </row>
+    <row r="3" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="90"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="39" t="s">
         <v>3</v>
       </c>
@@ -1732,22 +1781,22 @@
       <c r="I3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="94" t="s">
+      <c r="J3" s="65" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="77" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
@@ -1758,15 +1807,15 @@
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="71"/>
-      <c r="B5" s="80"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>2</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1777,9 +1826,9 @@
       <c r="I5" s="1"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:13" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="71"/>
-      <c r="B6" s="80"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="4">
         <f t="shared" ref="C6:C60" si="0">C5+1</f>
         <v>3</v>
@@ -1796,9 +1845,9 @@
       <c r="I6" s="1"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:13" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="71"/>
-      <c r="B7" s="80"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1815,9 +1864,9 @@
       <c r="I7" s="1"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:13" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="71"/>
-      <c r="B8" s="80"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1835,9 +1884,9 @@
       <c r="J8" s="13"/>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="1:13" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
-      <c r="B9" s="80"/>
+    <row r="9" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="68"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1854,11 +1903,11 @@
       <c r="I9" s="1"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="91" t="s">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="94" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4">
@@ -1877,9 +1926,9 @@
       <c r="I10" s="6"/>
       <c r="J10" s="40"/>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
-      <c r="B11" s="66"/>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="73"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1896,15 +1945,15 @@
       <c r="I11" s="1"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="92"/>
-      <c r="B12" s="66"/>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="73"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1915,9 +1964,9 @@
       <c r="I12" s="1"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
-      <c r="B13" s="67"/>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="73"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1934,9 +1983,9 @@
       <c r="I13" s="1"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="92"/>
-      <c r="B14" s="68" t="s">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="73"/>
+      <c r="B14" s="97" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="4">
@@ -1952,11 +2001,12 @@
         <v>28</v>
       </c>
       <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="40"/>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="92"/>
-      <c r="B15" s="69"/>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="73"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1973,11 +2023,11 @@
       <c r="I15" s="9"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="70" t="s">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="77" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4">
@@ -1985,10 +2035,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="11"/>
@@ -1996,26 +2046,26 @@
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="71"/>
-      <c r="B17" s="80"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="71"/>
       <c r="B18" s="59" t="s">
         <v>29</v>
@@ -2025,22 +2075,22 @@
         <v>15</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="85" t="s">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="99" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="4">
@@ -2048,10 +2098,10 @@
         <v>16</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="11"/>
@@ -2059,27 +2109,27 @@
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="86"/>
-      <c r="B20" s="77"/>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="84"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="28"/>
       <c r="G20" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="86"/>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="84"/>
       <c r="B21" s="61" t="s">
         <v>29</v>
       </c>
@@ -2088,22 +2138,22 @@
         <v>18</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="2" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="70" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="69" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="4">
@@ -2111,10 +2161,10 @@
         <v>19</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="1"/>
@@ -2122,9 +2172,9 @@
       <c r="I22" s="1"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="71"/>
-      <c r="B23" s="74"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2133,7 +2183,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="1"/>
@@ -2141,25 +2191,27 @@
       <c r="I23" s="1"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="71"/>
-      <c r="B24" s="75"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="28"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="72"/>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="68"/>
       <c r="B25" s="62" t="s">
         <v>29</v>
       </c>
@@ -2168,20 +2220,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="70" t="s">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="69" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="4">
@@ -2189,18 +2243,20 @@
         <v>23</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="64"/>
+        <v>73</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>93</v>
+      </c>
       <c r="F26" s="28"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="71"/>
-      <c r="B27" s="74"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2208,32 +2264,36 @@
       <c r="D27" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="29" t="s">
+        <v>96</v>
+      </c>
       <c r="F27" s="28"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="13"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="71"/>
-      <c r="B28" s="75"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E28" s="64"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="13"/>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="68"/>
       <c r="B29" s="63" t="s">
         <v>29</v>
       </c>
@@ -2242,20 +2302,22 @@
         <v>26</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="70" t="s">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="69" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="4">
@@ -2263,18 +2325,20 @@
         <v>27</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="64"/>
+        <v>73</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>93</v>
+      </c>
       <c r="F30" s="28"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="13"/>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="71"/>
-      <c r="B31" s="74"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2282,32 +2346,36 @@
       <c r="D31" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="64"/>
+      <c r="E31" s="64" t="s">
+        <v>97</v>
+      </c>
       <c r="F31" s="28"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="13"/>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="71"/>
-      <c r="B32" s="75"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="13"/>
     </row>
-    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="68"/>
       <c r="B33" s="62" t="s">
         <v>29</v>
       </c>
@@ -2316,20 +2384,22 @@
         <v>30</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="28"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="13"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="72" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="4">
@@ -2337,35 +2407,39 @@
         <v>31</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="17"/>
+      <c r="G34" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="H34" s="17"/>
       <c r="I34" s="16"/>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="71"/>
-      <c r="B35" s="74"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="D35" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="20"/>
+        <v>75</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="F35" s="20"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="16"/>
       <c r="J35" s="15"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="71"/>
-      <c r="B36" s="74"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2375,14 +2449,16 @@
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="18"/>
+      <c r="G36" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="H36" s="18"/>
       <c r="I36" s="16"/>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="71"/>
-      <c r="B37" s="74"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2392,15 +2468,17 @@
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="18"/>
+      <c r="G37" s="18" t="s">
+        <v>100</v>
+      </c>
       <c r="H37" s="18"/>
       <c r="I37" s="16"/>
       <c r="J37" s="15"/>
       <c r="L37" s="27"/>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
-      <c r="B38" s="75"/>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="68"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2410,16 +2488,18 @@
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
+      <c r="G38" s="32" t="s">
+        <v>50</v>
+      </c>
       <c r="H38" s="32"/>
       <c r="I38" s="51"/>
       <c r="J38" s="52"/>
     </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="73" t="s">
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="69" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="4">
@@ -2427,69 +2507,77 @@
         <v>36</v>
       </c>
       <c r="D39" s="49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="36"/>
+      <c r="G39" s="36" t="s">
+        <v>99</v>
+      </c>
       <c r="H39" s="36"/>
       <c r="I39" s="54"/>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="92"/>
-      <c r="B40" s="74"/>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="73"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="24"/>
-      <c r="G40" s="36"/>
+      <c r="G40" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="H40" s="36"/>
       <c r="I40" s="53"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="92"/>
-      <c r="B41" s="74"/>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="73"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="24"/>
+        <v>78</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="F41" s="25"/>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
       <c r="I41" s="53"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="92"/>
-      <c r="B42" s="74"/>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="73"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="F42" s="24"/>
       <c r="G42" s="36"/>
       <c r="H42" s="36"/>
       <c r="I42" s="53"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="92"/>
-      <c r="B43" s="74"/>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="73"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2499,14 +2587,16 @@
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
-      <c r="G43" s="36"/>
+      <c r="G43" s="36" t="s">
+        <v>55</v>
+      </c>
       <c r="H43" s="36"/>
       <c r="I43" s="53"/>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="92"/>
-      <c r="B44" s="74"/>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="73"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2516,14 +2606,16 @@
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
-      <c r="G44" s="36"/>
+      <c r="G44" s="36" t="s">
+        <v>56</v>
+      </c>
       <c r="H44" s="36"/>
       <c r="I44" s="53"/>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="93"/>
-      <c r="B45" s="75"/>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="74"/>
+      <c r="B45" s="70"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2533,16 +2625,18 @@
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
-      <c r="G45" s="36"/>
+      <c r="G45" s="36" t="s">
+        <v>57</v>
+      </c>
       <c r="H45" s="36"/>
       <c r="I45" s="53"/>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="70" t="s">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="73" t="s">
+      <c r="B46" s="69" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="4">
@@ -2550,29 +2644,29 @@
         <v>43</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="19"/>
+        <v>80</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="16"/>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="71"/>
-      <c r="B47" s="74"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="18"/>
@@ -2580,30 +2674,30 @@
       <c r="I47" s="16"/>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="72"/>
-      <c r="B48" s="75"/>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="68"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E48" s="25"/>
       <c r="F48" s="20"/>
       <c r="G48" s="18" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H48" s="18"/>
       <c r="I48" s="16"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="73" t="s">
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="69" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="4">
@@ -2611,29 +2705,29 @@
         <v>46</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="F49" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
       <c r="I49" s="17"/>
       <c r="J49" s="21"/>
     </row>
-    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="71"/>
-      <c r="B50" s="74"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="18"/>
@@ -2641,49 +2735,49 @@
       <c r="I50" s="16"/>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="71"/>
-      <c r="B51" s="74"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="20"/>
       <c r="G51" s="18" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="17"/>
       <c r="J51" s="21"/>
     </row>
-    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="72"/>
-      <c r="B52" s="75"/>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="68"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="20"/>
       <c r="G52" s="18" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
       <c r="J52" s="21"/>
     </row>
-    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="73" t="s">
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="69" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="4">
@@ -2691,41 +2785,41 @@
         <v>50</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>46</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E53" s="24"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="17"/>
+      <c r="G53" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="H53" s="17"/>
       <c r="I53" s="16"/>
       <c r="J53" s="15"/>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
-      <c r="B54" s="75"/>
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="68"/>
+      <c r="B54" s="70"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E54" s="25"/>
       <c r="F54" s="20"/>
       <c r="G54" s="18" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="H54" s="18"/>
       <c r="I54" s="16"/>
       <c r="J54" s="15"/>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="73" t="s">
+    <row r="55" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="69" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="4">
@@ -2733,29 +2827,29 @@
         <v>52</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="20"/>
       <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="H55" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="I55" s="16"/>
-      <c r="J55" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J55" s="15"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="71"/>
-      <c r="B56" s="74"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="18"/>
@@ -2763,49 +2857,49 @@
       <c r="I56" s="16"/>
       <c r="J56" s="15"/>
     </row>
-    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="71"/>
-      <c r="B57" s="74"/>
+      <c r="B57" s="72"/>
       <c r="C57" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E57" s="25"/>
       <c r="F57" s="20"/>
       <c r="G57" s="18" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="H57" s="18"/>
       <c r="I57" s="16"/>
       <c r="J57" s="15"/>
     </row>
-    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
-      <c r="B58" s="75"/>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="68"/>
+      <c r="B58" s="70"/>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E58" s="30"/>
       <c r="F58" s="31"/>
       <c r="G58" s="32" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="H58" s="32"/>
       <c r="I58" s="33"/>
       <c r="J58" s="34"/>
     </row>
-    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="73" t="s">
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="69" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="4">
@@ -2813,10 +2907,10 @@
         <v>56</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="36"/>
@@ -2824,41 +2918,36 @@
       <c r="I59" s="36"/>
       <c r="J59" s="34"/>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="100">
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="68"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="66">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
       <c r="G60" s="36" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="H60" s="36"/>
       <c r="I60" s="37"/>
       <c r="J60" s="15"/>
     </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I63" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A16:A18"/>
@@ -2873,12 +2962,20 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
